--- a/machine-learning/data clean.xlsx
+++ b/machine-learning/data clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder Kuliah ni\SKRIPSI SEMESTER 8\project skirpsi\end-to-end-ML-status-gizi-skripsi\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C67B2-A67E-40F8-810E-BD08489E0F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE85C2D2-E056-4C17-8D48-1E4E408FEC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1321">
   <si>
     <t>NIK</t>
   </si>
@@ -3184,24 +3184,6 @@
     <t>0 TAHUN - 10 BULAN - 18 HARI</t>
   </si>
   <si>
-    <t>2017 TAHUN - 2 BULAN - 26 HARI</t>
-  </si>
-  <si>
-    <t>2017 TAHUN - 2 BULAN - 27 HARI</t>
-  </si>
-  <si>
-    <t>2017 TAHUN - 3 BULAN - 26 HARI</t>
-  </si>
-  <si>
-    <t>2017 TAHUN - 7 BULAN - 14 HARI</t>
-  </si>
-  <si>
-    <t>2017 TAHUN - 8 BULAN - 20 HARI</t>
-  </si>
-  <si>
-    <t>2017 TAHUN - 9 BULAN - 9 HARI</t>
-  </si>
-  <si>
     <t>1 TAHUN - 0 BULAN - 6 HARI</t>
   </si>
   <si>
@@ -3853,9 +3835,6 @@
     <t>2020-02-11 </t>
   </si>
   <si>
-    <t>0002-11-20 </t>
-  </si>
-  <si>
     <t>2020-08-19 </t>
   </si>
   <si>
@@ -3986,6 +3965,24 @@
   </si>
   <si>
     <t>M. LICKY PEBRIAN</t>
+  </si>
+  <si>
+    <t>0 TAHUN - 2 BULAN - 26 HARI</t>
+  </si>
+  <si>
+    <t>0 TAHUN - 2 BULAN - 27 HARI</t>
+  </si>
+  <si>
+    <t>0 TAHUN - 3 BULAN - 26 HARI</t>
+  </si>
+  <si>
+    <t>0 TAHUN - 7 BULAN - 14 HARI</t>
+  </si>
+  <si>
+    <t>0 TAHUN - 8 BULAN - 20 HARI</t>
+  </si>
+  <si>
+    <t>0 TAHUN - 9 BULAN - 9 HARI</t>
   </si>
 </sst>
 </file>
@@ -4397,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="D69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,7 +4538,7 @@
         <v>1046</v>
       </c>
       <c r="Q2" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="R2">
         <v>9</v>
@@ -4553,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4606,7 +4603,7 @@
         <v>1047</v>
       </c>
       <c r="Q3" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="R3">
         <v>5.7</v>
@@ -4618,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4671,7 +4668,7 @@
         <v>1048</v>
       </c>
       <c r="Q4" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="R4">
         <v>8.1</v>
@@ -4683,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4736,7 +4733,7 @@
         <v>1049</v>
       </c>
       <c r="Q5" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="R5">
         <v>7.3</v>
@@ -4748,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4801,7 +4798,7 @@
         <v>1050</v>
       </c>
       <c r="Q6" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="R6">
         <v>6.3</v>
@@ -4813,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4866,7 +4863,7 @@
         <v>1051</v>
       </c>
       <c r="Q7" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="R7">
         <v>6.2</v>
@@ -4878,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4943,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5008,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5058,10 +5055,10 @@
         <v>997</v>
       </c>
       <c r="P10" t="s">
-        <v>1054</v>
+        <v>1315</v>
       </c>
       <c r="Q10" t="s">
-        <v>1277</v>
+        <v>658</v>
       </c>
       <c r="R10">
         <v>9.6999999999999993</v>
@@ -5073,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5123,10 +5120,10 @@
         <v>997</v>
       </c>
       <c r="P11" t="s">
-        <v>1055</v>
+        <v>1316</v>
       </c>
       <c r="Q11" t="s">
-        <v>1277</v>
+        <v>658</v>
       </c>
       <c r="R11">
         <v>8.6</v>
@@ -5138,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5188,10 +5185,10 @@
         <v>997</v>
       </c>
       <c r="P12" t="s">
-        <v>1056</v>
+        <v>1317</v>
       </c>
       <c r="Q12" t="s">
-        <v>1277</v>
+        <v>658</v>
       </c>
       <c r="R12">
         <v>8.4</v>
@@ -5203,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5253,10 +5250,10 @@
         <v>997</v>
       </c>
       <c r="P13" t="s">
-        <v>1057</v>
+        <v>1318</v>
       </c>
       <c r="Q13" t="s">
-        <v>1277</v>
+        <v>658</v>
       </c>
       <c r="R13">
         <v>8.8000000000000007</v>
@@ -5268,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5318,10 +5315,10 @@
         <v>997</v>
       </c>
       <c r="P14" t="s">
-        <v>1058</v>
+        <v>1319</v>
       </c>
       <c r="Q14" t="s">
-        <v>1277</v>
+        <v>658</v>
       </c>
       <c r="R14">
         <v>9.3000000000000007</v>
@@ -5333,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5383,10 +5380,10 @@
         <v>997</v>
       </c>
       <c r="P15" t="s">
-        <v>1059</v>
+        <v>1320</v>
       </c>
       <c r="Q15" t="s">
-        <v>1277</v>
+        <v>658</v>
       </c>
       <c r="R15">
         <v>8.1</v>
@@ -5398,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5448,7 +5445,7 @@
         <v>998</v>
       </c>
       <c r="P16" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="Q16" t="s">
         <v>547</v>
@@ -5463,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -5513,7 +5510,7 @@
         <v>999</v>
       </c>
       <c r="P17" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="Q17" t="s">
         <v>573</v>
@@ -5528,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -5578,10 +5575,10 @@
         <v>1000</v>
       </c>
       <c r="P18" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="Q18" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R18">
         <v>6.2</v>
@@ -5593,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -5643,10 +5640,10 @@
         <v>1000</v>
       </c>
       <c r="P19" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="Q19" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -5658,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5708,10 +5705,10 @@
         <v>1000</v>
       </c>
       <c r="P20" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="Q20" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R20">
         <v>15.8</v>
@@ -5723,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>1001</v>
       </c>
       <c r="P21" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="Q21" t="s">
         <v>687</v>
@@ -5788,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -5838,7 +5835,7 @@
         <v>1001</v>
       </c>
       <c r="P22" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="Q22" t="s">
         <v>687</v>
@@ -5853,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -5903,10 +5900,10 @@
         <v>1002</v>
       </c>
       <c r="P23" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="Q23" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="R23">
         <v>5.9</v>
@@ -5918,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -5968,10 +5965,10 @@
         <v>1002</v>
       </c>
       <c r="P24" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="Q24" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="R24">
         <v>6.7</v>
@@ -5983,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="U24" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -6033,10 +6030,10 @@
         <v>1003</v>
       </c>
       <c r="P25" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="Q25" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="R25">
         <v>7.7</v>
@@ -6048,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -6098,10 +6095,10 @@
         <v>1004</v>
       </c>
       <c r="P26" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="Q26" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="R26">
         <v>10.199999999999999</v>
@@ -6113,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="U26" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -6163,10 +6160,10 @@
         <v>1004</v>
       </c>
       <c r="P27" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="Q27" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="R27">
         <v>4.9000000000000004</v>
@@ -6178,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="U27" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -6228,10 +6225,10 @@
         <v>1005</v>
       </c>
       <c r="P28" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="Q28" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="R28">
         <v>13.8</v>
@@ -6243,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="U28" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -6293,10 +6290,10 @@
         <v>992</v>
       </c>
       <c r="P29" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="Q29" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="R29">
         <v>8.6</v>
@@ -6308,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -6358,10 +6355,10 @@
         <v>992</v>
       </c>
       <c r="P30" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="Q30" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="R30">
         <v>7.1</v>
@@ -6373,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="U30" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -6423,10 +6420,10 @@
         <v>993</v>
       </c>
       <c r="P31" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="Q31" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R31">
         <v>12.5</v>
@@ -6438,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="U31" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -6488,7 +6485,7 @@
         <v>1006</v>
       </c>
       <c r="P32" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="Q32" t="s">
         <v>547</v>
@@ -6503,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="U32" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -6553,10 +6550,10 @@
         <v>1007</v>
       </c>
       <c r="P33" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="Q33" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="R33">
         <v>10</v>
@@ -6568,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -6618,7 +6615,7 @@
         <v>1008</v>
       </c>
       <c r="P34" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="Q34" t="s">
         <v>670</v>
@@ -6633,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -6683,10 +6680,10 @@
         <v>1009</v>
       </c>
       <c r="P35" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="Q35" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="R35">
         <v>7.6</v>
@@ -6698,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -6748,10 +6745,10 @@
         <v>1009</v>
       </c>
       <c r="P36" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="Q36" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="R36">
         <v>6.5</v>
@@ -6763,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -6813,10 +6810,10 @@
         <v>1010</v>
       </c>
       <c r="P37" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="Q37" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="R37">
         <v>6.7</v>
@@ -6828,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="U37" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -6878,7 +6875,7 @@
         <v>996</v>
       </c>
       <c r="P38" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="Q38" t="s">
         <v>546</v>
@@ -6893,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -6943,10 +6940,10 @@
         <v>1011</v>
       </c>
       <c r="P39" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="Q39" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="R39">
         <v>8.9</v>
@@ -6958,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="U39" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -6966,7 +6963,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
@@ -7008,10 +7005,10 @@
         <v>1012</v>
       </c>
       <c r="P40" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="Q40" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="R40">
         <v>8.1</v>
@@ -7023,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -7073,10 +7070,10 @@
         <v>997</v>
       </c>
       <c r="P41" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="Q41" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R41">
         <v>11</v>
@@ -7088,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -7138,10 +7135,10 @@
         <v>997</v>
       </c>
       <c r="P42" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="Q42" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R42">
         <v>10.5</v>
@@ -7153,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -7203,10 +7200,10 @@
         <v>997</v>
       </c>
       <c r="P43" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="Q43" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R43">
         <v>9.5</v>
@@ -7218,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="U43" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -7268,10 +7265,10 @@
         <v>997</v>
       </c>
       <c r="P44" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="Q44" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R44">
         <v>9</v>
@@ -7283,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="U44" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -7333,10 +7330,10 @@
         <v>997</v>
       </c>
       <c r="P45" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="Q45" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="R45">
         <v>8</v>
@@ -7348,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="U45" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -7398,10 +7395,10 @@
         <v>1013</v>
       </c>
       <c r="P46" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="Q46" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="R46">
         <v>10</v>
@@ -7413,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -7463,10 +7460,10 @@
         <v>1013</v>
       </c>
       <c r="P47" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="Q47" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="R47">
         <v>10.3</v>
@@ -7478,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -7528,10 +7525,10 @@
         <v>1014</v>
       </c>
       <c r="P48" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="Q48" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="R48">
         <v>9</v>
@@ -7543,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -7593,10 +7590,10 @@
         <v>1015</v>
       </c>
       <c r="P49" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="Q49" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="R49">
         <v>9.8000000000000007</v>
@@ -7608,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -7658,10 +7655,10 @@
         <v>1015</v>
       </c>
       <c r="P50" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="Q50" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="R50">
         <v>9.6</v>
@@ -7673,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -7723,10 +7720,10 @@
         <v>1016</v>
       </c>
       <c r="P51" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="Q51" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="R51">
         <v>9.1999999999999993</v>
@@ -7738,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -7788,7 +7785,7 @@
         <v>1017</v>
       </c>
       <c r="P52" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="Q52" t="s">
         <v>596</v>
@@ -7803,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="U52" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -7853,10 +7850,10 @@
         <v>1000</v>
       </c>
       <c r="P53" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="Q53" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="R53">
         <v>10.5</v>
@@ -7868,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="U53" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -7918,10 +7915,10 @@
         <v>1018</v>
       </c>
       <c r="P54" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="Q54" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="R54">
         <v>13</v>
@@ -7933,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -7983,10 +7980,10 @@
         <v>1019</v>
       </c>
       <c r="P55" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="Q55" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="R55">
         <v>10.1</v>
@@ -7998,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="U55" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -8048,7 +8045,7 @@
         <v>1004</v>
       </c>
       <c r="P56" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="Q56" t="s">
         <v>631</v>
@@ -8063,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="U56" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -8128,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="U57" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -8178,7 +8175,7 @@
         <v>992</v>
       </c>
       <c r="P58" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="Q58" t="s">
         <v>583</v>
@@ -8193,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="U58" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -8243,7 +8240,7 @@
         <v>992</v>
       </c>
       <c r="P59" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="Q59" t="s">
         <v>583</v>
@@ -8258,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="U59" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -8308,7 +8305,7 @@
         <v>1020</v>
       </c>
       <c r="P60" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="Q60" t="s">
         <v>596</v>
@@ -8323,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="U60" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -8373,10 +8370,10 @@
         <v>948</v>
       </c>
       <c r="P61" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="Q61" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="R61">
         <v>9</v>
@@ -8388,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="U61" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -8438,10 +8435,10 @@
         <v>995</v>
       </c>
       <c r="P62" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="Q62" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="R62">
         <v>7.5</v>
@@ -8453,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="U62" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -8503,10 +8500,10 @@
         <v>1008</v>
       </c>
       <c r="P63" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="Q63" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="R63">
         <v>10</v>
@@ -8518,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -8568,10 +8565,10 @@
         <v>1008</v>
       </c>
       <c r="P64" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="Q64" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="R64">
         <v>8.1</v>
@@ -8583,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="U64" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -8633,10 +8630,10 @@
         <v>1021</v>
       </c>
       <c r="P65" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="Q65" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="R65">
         <v>13.7</v>
@@ -8648,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="U65" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -8698,10 +8695,10 @@
         <v>1010</v>
       </c>
       <c r="P66" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="Q66" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="R66">
         <v>8.4</v>
@@ -8713,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -8763,10 +8760,10 @@
         <v>1010</v>
       </c>
       <c r="P67" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="Q67" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="R67">
         <v>5.5</v>
@@ -8778,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="U67" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -8831,7 +8828,7 @@
         <v>1048</v>
       </c>
       <c r="Q68" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="R68">
         <v>8.6999999999999993</v>
@@ -8843,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="U68" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -8893,10 +8890,10 @@
         <v>1011</v>
       </c>
       <c r="P69" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="Q69" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="R69">
         <v>11.9</v>
@@ -8908,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="U69" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -8958,10 +8955,10 @@
         <v>1011</v>
       </c>
       <c r="P70" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="Q70" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="R70">
         <v>6.8</v>
@@ -8973,7 +8970,7 @@
         <v>1</v>
       </c>
       <c r="U70" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -9023,10 +9020,10 @@
         <v>1022</v>
       </c>
       <c r="P71" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="Q71" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="R71">
         <v>9.3000000000000007</v>
@@ -9038,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="U71" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -9088,10 +9085,10 @@
         <v>1023</v>
       </c>
       <c r="P72" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="Q72" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="R72">
         <v>10.4</v>
@@ -9103,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="U72" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -9153,10 +9150,10 @@
         <v>1012</v>
       </c>
       <c r="P73" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="Q73" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="R73">
         <v>10.199999999999999</v>
@@ -9168,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="U73" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -9218,10 +9215,10 @@
         <v>1013</v>
       </c>
       <c r="P74" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="Q74" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="R74">
         <v>11.1</v>
@@ -9233,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="U74" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -9283,10 +9280,10 @@
         <v>1013</v>
       </c>
       <c r="P75" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="Q75" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="R75">
         <v>9.5</v>
@@ -9298,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="U75" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
@@ -9348,10 +9345,10 @@
         <v>1013</v>
       </c>
       <c r="P76" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="Q76" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="R76">
         <v>9.5</v>
@@ -9363,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="U76" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -9413,10 +9410,10 @@
         <v>1024</v>
       </c>
       <c r="P77" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="Q77" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="R77">
         <v>12.6</v>
@@ -9428,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="U77" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -9478,10 +9475,10 @@
         <v>1014</v>
       </c>
       <c r="P78" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="Q78" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R78">
         <v>12.2</v>
@@ -9493,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="U78" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -9543,10 +9540,10 @@
         <v>1014</v>
       </c>
       <c r="P79" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="Q79" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R79">
         <v>11.8</v>
@@ -9558,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="U79" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -9608,10 +9605,10 @@
         <v>1025</v>
       </c>
       <c r="P80" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="Q80" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R80">
         <v>11.4</v>
@@ -9623,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="U80" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -9673,10 +9670,10 @@
         <v>1014</v>
       </c>
       <c r="P81" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="Q81" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R81">
         <v>10.4</v>
@@ -9688,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="U81" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -9738,10 +9735,10 @@
         <v>998</v>
       </c>
       <c r="P82" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="Q82" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R82">
         <v>9.4</v>
@@ -9753,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="U82" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -9803,10 +9800,10 @@
         <v>998</v>
       </c>
       <c r="P83" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="Q83" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R83">
         <v>10</v>
@@ -9818,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="U83" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -9868,10 +9865,10 @@
         <v>998</v>
       </c>
       <c r="P84" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="Q84" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R84">
         <v>11.8</v>
@@ -9883,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="U84" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -9933,10 +9930,10 @@
         <v>998</v>
       </c>
       <c r="P85" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="Q85" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R85">
         <v>9.1999999999999993</v>
@@ -9948,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="U85" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -9998,10 +9995,10 @@
         <v>998</v>
       </c>
       <c r="P86" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="Q86" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R86">
         <v>13.3</v>
@@ -10013,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="U86" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -10063,10 +10060,10 @@
         <v>998</v>
       </c>
       <c r="P87" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="Q87" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R87">
         <v>10.3</v>
@@ -10078,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="U87" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -10128,10 +10125,10 @@
         <v>998</v>
       </c>
       <c r="P88" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="Q88" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R88">
         <v>10.7</v>
@@ -10143,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="U88" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -10193,10 +10190,10 @@
         <v>998</v>
       </c>
       <c r="P89" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="Q89" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R89">
         <v>11.6</v>
@@ -10208,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="U89" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -10258,10 +10255,10 @@
         <v>998</v>
       </c>
       <c r="P90" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="Q90" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R90">
         <v>11</v>
@@ -10273,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="U90" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -10323,10 +10320,10 @@
         <v>998</v>
       </c>
       <c r="P91" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="Q91" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R91">
         <v>12.3</v>
@@ -10338,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="U91" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -10388,10 +10385,10 @@
         <v>999</v>
       </c>
       <c r="P92" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="Q92" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R92">
         <v>12.3</v>
@@ -10403,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="U92" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -10453,10 +10450,10 @@
         <v>999</v>
       </c>
       <c r="P93" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="Q93" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R93">
         <v>9.3000000000000007</v>
@@ -10468,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="U93" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -10518,10 +10515,10 @@
         <v>1026</v>
       </c>
       <c r="P94" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="Q94" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R94">
         <v>10.7</v>
@@ -10533,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="U94" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -10583,10 +10580,10 @@
         <v>999</v>
       </c>
       <c r="P95" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="Q95" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R95">
         <v>10.1</v>
@@ -10598,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="U95" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -10648,10 +10645,10 @@
         <v>1016</v>
       </c>
       <c r="P96" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="Q96" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R96">
         <v>10.5</v>
@@ -10663,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="U96" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -10713,10 +10710,10 @@
         <v>1016</v>
       </c>
       <c r="P97" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="Q97" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R97">
         <v>9</v>
@@ -10728,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="U97" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -10778,10 +10775,10 @@
         <v>1016</v>
       </c>
       <c r="P98" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="Q98" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R98">
         <v>12</v>
@@ -10793,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="U98" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -10843,10 +10840,10 @@
         <v>1016</v>
       </c>
       <c r="P99" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="Q99" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R99">
         <v>12.4</v>
@@ -10858,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="U99" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -10908,10 +10905,10 @@
         <v>1016</v>
       </c>
       <c r="P100" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="Q100" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R100">
         <v>12.9</v>
@@ -10923,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="U100" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -10973,10 +10970,10 @@
         <v>1016</v>
       </c>
       <c r="P101" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="Q101" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R101">
         <v>9.8000000000000007</v>
@@ -10988,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="U101" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -11038,10 +11035,10 @@
         <v>1016</v>
       </c>
       <c r="P102" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="Q102" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R102">
         <v>10</v>
@@ -11053,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="U102" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -11103,10 +11100,10 @@
         <v>1000</v>
       </c>
       <c r="P103" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="Q103" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="R103">
         <v>10.6</v>
@@ -11118,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="U103" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -11168,10 +11165,10 @@
         <v>1000</v>
       </c>
       <c r="P104" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="Q104" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="R104">
         <v>12</v>
@@ -11183,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="U104" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -11233,10 +11230,10 @@
         <v>1000</v>
       </c>
       <c r="P105" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="Q105" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="R105">
         <v>13.2</v>
@@ -11248,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="U105" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -11298,10 +11295,10 @@
         <v>1027</v>
       </c>
       <c r="P106" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="Q106" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="R106">
         <v>11.6</v>
@@ -11313,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="U106" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -11363,10 +11360,10 @@
         <v>1027</v>
       </c>
       <c r="P107" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="Q107" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="R107">
         <v>12.9</v>
@@ -11378,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="U107" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -11428,10 +11425,10 @@
         <v>1018</v>
       </c>
       <c r="P108" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="Q108" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R108">
         <v>10</v>
@@ -11443,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="U108" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -11493,10 +11490,10 @@
         <v>1018</v>
       </c>
       <c r="P109" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="Q109" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R109">
         <v>9.5</v>
@@ -11508,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="U109" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -11558,10 +11555,10 @@
         <v>1028</v>
       </c>
       <c r="P110" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="Q110" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="R110">
         <v>11.3</v>
@@ -11573,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="U110" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -11623,10 +11620,10 @@
         <v>1001</v>
       </c>
       <c r="P111" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="Q111" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="R111">
         <v>11</v>
@@ -11638,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="U111" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -11688,10 +11685,10 @@
         <v>1001</v>
       </c>
       <c r="P112" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="Q112" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="R112">
         <v>10.7</v>
@@ -11703,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="U112" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -11753,10 +11750,10 @@
         <v>1001</v>
       </c>
       <c r="P113" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="Q113" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="R113">
         <v>8.9</v>
@@ -11768,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="U113" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -11818,10 +11815,10 @@
         <v>1001</v>
       </c>
       <c r="P114" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="Q114" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="R114">
         <v>9.9</v>
@@ -11833,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="U114" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -11883,10 +11880,10 @@
         <v>1024</v>
       </c>
       <c r="P115" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="Q115" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="R115">
         <v>11.5</v>
@@ -11898,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="U115" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -11948,10 +11945,10 @@
         <v>1003</v>
       </c>
       <c r="P116" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="Q116" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R116">
         <v>12</v>
@@ -11963,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="U116" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -12013,10 +12010,10 @@
         <v>1003</v>
       </c>
       <c r="P117" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q117" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R117">
         <v>9</v>
@@ -12028,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="U117" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -12078,10 +12075,10 @@
         <v>1029</v>
       </c>
       <c r="P118" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="Q118" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R118">
         <v>13.9</v>
@@ -12093,7 +12090,7 @@
         <v>1</v>
       </c>
       <c r="U118" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -12143,10 +12140,10 @@
         <v>1029</v>
       </c>
       <c r="P119" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="Q119" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R119">
         <v>10.3</v>
@@ -12158,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="U119" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -12208,10 +12205,10 @@
         <v>1029</v>
       </c>
       <c r="P120" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="Q120" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R120">
         <v>11.4</v>
@@ -12223,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="U120" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -12273,10 +12270,10 @@
         <v>1029</v>
       </c>
       <c r="P121" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="Q121" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R121">
         <v>7.7</v>
@@ -12288,7 +12285,7 @@
         <v>1</v>
       </c>
       <c r="U121" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -12338,10 +12335,10 @@
         <v>1004</v>
       </c>
       <c r="P122" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="Q122" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="R122">
         <v>9.9</v>
@@ -12353,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="U122" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -12403,10 +12400,10 @@
         <v>1004</v>
       </c>
       <c r="P123" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="Q123" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="R123">
         <v>10.3</v>
@@ -12418,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="U123" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -12468,10 +12465,10 @@
         <v>1004</v>
       </c>
       <c r="P124" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="Q124" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="R124">
         <v>10.199999999999999</v>
@@ -12483,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="U124" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
@@ -12533,10 +12530,10 @@
         <v>1004</v>
       </c>
       <c r="P125" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="Q125" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="R125">
         <v>7.6</v>
@@ -12548,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="U125" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -12598,10 +12595,10 @@
         <v>1005</v>
       </c>
       <c r="P126" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="Q126" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R126">
         <v>13.4</v>
@@ -12613,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="U126" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -12663,10 +12660,10 @@
         <v>1005</v>
       </c>
       <c r="P127" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="Q127" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R127">
         <v>12.4</v>
@@ -12678,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="U127" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -12728,10 +12725,10 @@
         <v>1005</v>
       </c>
       <c r="P128" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="Q128" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R128">
         <v>11.9</v>
@@ -12743,7 +12740,7 @@
         <v>1</v>
       </c>
       <c r="U128" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -12793,10 +12790,10 @@
         <v>1005</v>
       </c>
       <c r="P129" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="Q129" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R129">
         <v>11.7</v>
@@ -12808,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="U129" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -12858,10 +12855,10 @@
         <v>1005</v>
       </c>
       <c r="P130" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="Q130" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R130">
         <v>11</v>
@@ -12873,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="U130" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
@@ -12923,10 +12920,10 @@
         <v>1005</v>
       </c>
       <c r="P131" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="Q131" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R131">
         <v>9.1</v>
@@ -12938,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="U131" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -12988,10 +12985,10 @@
         <v>992</v>
       </c>
       <c r="P132" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="Q132" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="R132">
         <v>9.3000000000000007</v>
@@ -13003,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="U132" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -13053,10 +13050,10 @@
         <v>992</v>
       </c>
       <c r="P133" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="Q133" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="R133">
         <v>9.9</v>
@@ -13068,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="U133" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -13118,10 +13115,10 @@
         <v>1030</v>
       </c>
       <c r="P134" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="Q134" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="R134">
         <v>13.2</v>
@@ -13133,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="U134" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -13183,10 +13180,10 @@
         <v>1030</v>
       </c>
       <c r="P135" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="Q135" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="R135">
         <v>13.2</v>
@@ -13198,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="U135" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -13248,10 +13245,10 @@
         <v>1007</v>
       </c>
       <c r="P136" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="Q136" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R136">
         <v>14.5</v>
@@ -13263,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="U136" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -13313,10 +13310,10 @@
         <v>1007</v>
       </c>
       <c r="P137" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="Q137" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R137">
         <v>14.5</v>
@@ -13328,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="U137" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -13378,10 +13375,10 @@
         <v>1007</v>
       </c>
       <c r="P138" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="Q138" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R138">
         <v>14</v>
@@ -13393,7 +13390,7 @@
         <v>1</v>
       </c>
       <c r="U138" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -13443,10 +13440,10 @@
         <v>1007</v>
       </c>
       <c r="P139" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="Q139" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R139">
         <v>10.7</v>
@@ -13458,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="U139" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -13508,10 +13505,10 @@
         <v>1007</v>
       </c>
       <c r="P140" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="Q140" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R140">
         <v>9.9</v>
@@ -13523,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="U140" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -13573,10 +13570,10 @@
         <v>1007</v>
       </c>
       <c r="P141" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="Q141" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R141">
         <v>10.5</v>
@@ -13588,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="U141" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -13638,10 +13635,10 @@
         <v>1007</v>
       </c>
       <c r="P142" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="Q142" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R142">
         <v>7</v>
@@ -13653,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="U142" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -13703,10 +13700,10 @@
         <v>1007</v>
       </c>
       <c r="P143" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="Q143" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R143">
         <v>8.6999999999999993</v>
@@ -13718,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="U143" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -13768,10 +13765,10 @@
         <v>993</v>
       </c>
       <c r="P144" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="Q144" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="R144">
         <v>7.4</v>
@@ -13783,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="U144" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -13833,10 +13830,10 @@
         <v>948</v>
       </c>
       <c r="P145" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="Q145" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="R145">
         <v>13.2</v>
@@ -13848,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="U145" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -13898,10 +13895,10 @@
         <v>948</v>
       </c>
       <c r="P146" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="Q146" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="R146">
         <v>10.7</v>
@@ -13913,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="U146" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -13963,10 +13960,10 @@
         <v>1009</v>
       </c>
       <c r="P147" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="Q147" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="R147">
         <v>11.4</v>
@@ -13978,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="U147" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
@@ -14028,10 +14025,10 @@
         <v>1009</v>
       </c>
       <c r="P148" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="Q148" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="R148">
         <v>9.3000000000000007</v>
@@ -14043,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="U148" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -14093,10 +14090,10 @@
         <v>1009</v>
       </c>
       <c r="P149" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="Q149" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="R149">
         <v>10.4</v>
@@ -14108,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="U149" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
@@ -14158,10 +14155,10 @@
         <v>996</v>
       </c>
       <c r="P150" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="Q150" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R150">
         <v>12.4</v>
@@ -14173,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="U150" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
@@ -14223,10 +14220,10 @@
         <v>996</v>
       </c>
       <c r="P151" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="Q151" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R151">
         <v>11.2</v>
@@ -14238,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="U151" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -14288,10 +14285,10 @@
         <v>996</v>
       </c>
       <c r="P152" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="Q152" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R152">
         <v>11</v>
@@ -14303,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="U152" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -14353,10 +14350,10 @@
         <v>996</v>
       </c>
       <c r="P153" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="Q153" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R153">
         <v>9.9</v>
@@ -14368,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="U153" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -14418,10 +14415,10 @@
         <v>996</v>
       </c>
       <c r="P154" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="Q154" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R154">
         <v>11.5</v>
@@ -14433,7 +14430,7 @@
         <v>1</v>
       </c>
       <c r="U154" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
@@ -14483,10 +14480,10 @@
         <v>996</v>
       </c>
       <c r="P155" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="Q155" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R155">
         <v>9.3000000000000007</v>
@@ -14498,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="U155" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
@@ -14548,10 +14545,10 @@
         <v>996</v>
       </c>
       <c r="P156" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="Q156" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R156">
         <v>9.1</v>
@@ -14563,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="U156" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
@@ -14613,10 +14610,10 @@
         <v>1011</v>
       </c>
       <c r="P157" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="Q157" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R157">
         <v>11.3</v>
@@ -14628,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="U157" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
@@ -14678,10 +14675,10 @@
         <v>1011</v>
       </c>
       <c r="P158" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="Q158" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R158">
         <v>11.9</v>
@@ -14693,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="U158" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
@@ -14743,10 +14740,10 @@
         <v>1011</v>
       </c>
       <c r="P159" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="Q159" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R159">
         <v>11.5</v>
@@ -14758,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="U159" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
@@ -14808,10 +14805,10 @@
         <v>1011</v>
       </c>
       <c r="P160" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="Q160" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R160">
         <v>9</v>
@@ -14823,7 +14820,7 @@
         <v>1</v>
       </c>
       <c r="U160" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
@@ -14873,10 +14870,10 @@
         <v>1022</v>
       </c>
       <c r="P161" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="Q161" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R161">
         <v>12.2</v>
@@ -14888,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="U161" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -14938,10 +14935,10 @@
         <v>1022</v>
       </c>
       <c r="P162" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="Q162" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R162">
         <v>12.8</v>
@@ -14953,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="U162" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
@@ -15003,10 +15000,10 @@
         <v>1022</v>
       </c>
       <c r="P163" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="Q163" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R163">
         <v>9.4</v>
@@ -15018,7 +15015,7 @@
         <v>1</v>
       </c>
       <c r="U163" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
@@ -15068,10 +15065,10 @@
         <v>1013</v>
       </c>
       <c r="P164" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="Q164" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="R164">
         <v>11.9</v>
@@ -15083,7 +15080,7 @@
         <v>1</v>
       </c>
       <c r="U164" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
@@ -15133,10 +15130,10 @@
         <v>1013</v>
       </c>
       <c r="P165" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="Q165" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="R165">
         <v>8.6999999999999993</v>
@@ -15148,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="U165" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -15198,10 +15195,10 @@
         <v>1013</v>
       </c>
       <c r="P166" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="Q166" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="R166">
         <v>8</v>
@@ -15213,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="U166" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -15263,10 +15260,10 @@
         <v>1031</v>
       </c>
       <c r="P167" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="Q167" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R167">
         <v>7.3</v>
@@ -15278,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="U167" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
@@ -15328,10 +15325,10 @@
         <v>1032</v>
       </c>
       <c r="P168" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="Q168" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R168">
         <v>9.9</v>
@@ -15343,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="U168" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
@@ -15393,10 +15390,10 @@
         <v>1032</v>
       </c>
       <c r="P169" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="Q169" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R169">
         <v>10.5</v>
@@ -15408,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="U169" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
@@ -15458,10 +15455,10 @@
         <v>1032</v>
       </c>
       <c r="P170" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="Q170" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R170">
         <v>9.5</v>
@@ -15473,7 +15470,7 @@
         <v>1</v>
       </c>
       <c r="U170" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -15523,10 +15520,10 @@
         <v>1032</v>
       </c>
       <c r="P171" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="Q171" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R171">
         <v>12.9</v>
@@ -15538,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="U171" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -15588,10 +15585,10 @@
         <v>1032</v>
       </c>
       <c r="P172" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="Q172" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R172">
         <v>9.8000000000000007</v>
@@ -15603,7 +15600,7 @@
         <v>1</v>
       </c>
       <c r="U172" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -15653,10 +15650,10 @@
         <v>1014</v>
       </c>
       <c r="P173" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="Q173" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R173">
         <v>12.2</v>
@@ -15668,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="U173" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -15718,10 +15715,10 @@
         <v>1014</v>
       </c>
       <c r="P174" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="Q174" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R174">
         <v>9.6999999999999993</v>
@@ -15733,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="U174" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -15783,10 +15780,10 @@
         <v>1014</v>
       </c>
       <c r="P175" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="Q175" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R175">
         <v>12.8</v>
@@ -15798,7 +15795,7 @@
         <v>1</v>
       </c>
       <c r="U175" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -15848,10 +15845,10 @@
         <v>998</v>
       </c>
       <c r="P176" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="Q176" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R176">
         <v>12.6</v>
@@ -15863,7 +15860,7 @@
         <v>1</v>
       </c>
       <c r="U176" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -15913,10 +15910,10 @@
         <v>998</v>
       </c>
       <c r="P177" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="Q177" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R177">
         <v>13.2</v>
@@ -15928,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="U177" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -15978,10 +15975,10 @@
         <v>998</v>
       </c>
       <c r="P178" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="Q178" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R178">
         <v>11.6</v>
@@ -15993,7 +15990,7 @@
         <v>1</v>
       </c>
       <c r="U178" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
@@ -16043,10 +16040,10 @@
         <v>998</v>
       </c>
       <c r="P179" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="Q179" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R179">
         <v>12.5</v>
@@ -16058,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="U179" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -16108,10 +16105,10 @@
         <v>998</v>
       </c>
       <c r="P180" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="Q180" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R180">
         <v>9.4</v>
@@ -16123,7 +16120,7 @@
         <v>1</v>
       </c>
       <c r="U180" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -16173,10 +16170,10 @@
         <v>998</v>
       </c>
       <c r="P181" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="Q181" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R181">
         <v>11.7</v>
@@ -16188,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="U181" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -16238,10 +16235,10 @@
         <v>998</v>
       </c>
       <c r="P182" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="Q182" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R182">
         <v>10</v>
@@ -16253,7 +16250,7 @@
         <v>1</v>
       </c>
       <c r="U182" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -16303,10 +16300,10 @@
         <v>998</v>
       </c>
       <c r="P183" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="Q183" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R183">
         <v>12.5</v>
@@ -16318,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="U183" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -16368,10 +16365,10 @@
         <v>998</v>
       </c>
       <c r="P184" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="Q184" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R184">
         <v>11.9</v>
@@ -16383,7 +16380,7 @@
         <v>1</v>
       </c>
       <c r="U184" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -16433,10 +16430,10 @@
         <v>998</v>
       </c>
       <c r="P185" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="Q185" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="R185">
         <v>9.6</v>
@@ -16448,7 +16445,7 @@
         <v>1</v>
       </c>
       <c r="U185" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -16498,10 +16495,10 @@
         <v>1015</v>
       </c>
       <c r="P186" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="Q186" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R186">
         <v>8.1999999999999993</v>
@@ -16513,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="U186" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -16563,10 +16560,10 @@
         <v>1015</v>
       </c>
       <c r="P187" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="Q187" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R187">
         <v>9</v>
@@ -16578,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="U187" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -16628,10 +16625,10 @@
         <v>1015</v>
       </c>
       <c r="P188" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="Q188" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R188">
         <v>10.4</v>
@@ -16643,7 +16640,7 @@
         <v>1</v>
       </c>
       <c r="U188" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -16693,10 +16690,10 @@
         <v>1015</v>
       </c>
       <c r="P189" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="Q189" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R189">
         <v>10.7</v>
@@ -16708,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="U189" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -16758,10 +16755,10 @@
         <v>1033</v>
       </c>
       <c r="P190" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="Q190" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="R190">
         <v>11.4</v>
@@ -16773,7 +16770,7 @@
         <v>1</v>
       </c>
       <c r="U190" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -16823,10 +16820,10 @@
         <v>1033</v>
       </c>
       <c r="P191" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="Q191" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="R191">
         <v>10</v>
@@ -16838,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="U191" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -16888,10 +16885,10 @@
         <v>999</v>
       </c>
       <c r="P192" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="Q192" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R192">
         <v>11.9</v>
@@ -16903,7 +16900,7 @@
         <v>1</v>
       </c>
       <c r="U192" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -16953,10 +16950,10 @@
         <v>1033</v>
       </c>
       <c r="P193" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="Q193" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="R193">
         <v>11.8</v>
@@ -16968,7 +16965,7 @@
         <v>1</v>
       </c>
       <c r="U193" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -17018,10 +17015,10 @@
         <v>999</v>
       </c>
       <c r="P194" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="Q194" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R194">
         <v>11.3</v>
@@ -17033,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="U194" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -17083,10 +17080,10 @@
         <v>999</v>
       </c>
       <c r="P195" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="Q195" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R195">
         <v>11.2</v>
@@ -17098,7 +17095,7 @@
         <v>1</v>
       </c>
       <c r="U195" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -17148,10 +17145,10 @@
         <v>1026</v>
       </c>
       <c r="P196" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="Q196" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="R196">
         <v>8.6</v>
@@ -17163,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="U196" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -17213,10 +17210,10 @@
         <v>1016</v>
       </c>
       <c r="P197" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="Q197" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R197">
         <v>13</v>
@@ -17228,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="U197" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -17278,10 +17275,10 @@
         <v>1016</v>
       </c>
       <c r="P198" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="Q198" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R198">
         <v>8</v>
@@ -17293,7 +17290,7 @@
         <v>1</v>
       </c>
       <c r="U198" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -17343,10 +17340,10 @@
         <v>1016</v>
       </c>
       <c r="P199" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="Q199" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="R199">
         <v>9.8000000000000007</v>
@@ -17358,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="U199" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -17408,10 +17405,10 @@
         <v>1034</v>
       </c>
       <c r="P200" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="Q200" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R200">
         <v>7.2</v>
@@ -17423,7 +17420,7 @@
         <v>1</v>
       </c>
       <c r="U200" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -17473,10 +17470,10 @@
         <v>1017</v>
       </c>
       <c r="P201" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="Q201" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R201">
         <v>12.8</v>
@@ -17488,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="U201" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -17538,10 +17535,10 @@
         <v>1035</v>
       </c>
       <c r="P202" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="Q202" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R202">
         <v>8.1999999999999993</v>
@@ -17553,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="U202" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -17603,10 +17600,10 @@
         <v>1035</v>
       </c>
       <c r="P203" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="Q203" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R203">
         <v>10.4</v>
@@ -17618,7 +17615,7 @@
         <v>1</v>
       </c>
       <c r="U203" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -17668,10 +17665,10 @@
         <v>1017</v>
       </c>
       <c r="P204" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="Q204" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="R204">
         <v>11.6</v>
@@ -17683,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="U204" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -17733,10 +17730,10 @@
         <v>1036</v>
       </c>
       <c r="P205" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="Q205" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="R205">
         <v>10.8</v>
@@ -17748,7 +17745,7 @@
         <v>1</v>
       </c>
       <c r="U205" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -17798,10 +17795,10 @@
         <v>1036</v>
       </c>
       <c r="P206" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="Q206" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="R206">
         <v>12.2</v>
@@ -17813,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="U206" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -17863,10 +17860,10 @@
         <v>1037</v>
       </c>
       <c r="P207" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="Q207" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R207">
         <v>13.3</v>
@@ -17878,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="U207" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -17928,10 +17925,10 @@
         <v>1037</v>
       </c>
       <c r="P208" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="Q208" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R208">
         <v>11</v>
@@ -17943,7 +17940,7 @@
         <v>1</v>
       </c>
       <c r="U208" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -17993,10 +17990,10 @@
         <v>1037</v>
       </c>
       <c r="P209" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="Q209" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R209">
         <v>11.6</v>
@@ -18008,7 +18005,7 @@
         <v>1</v>
       </c>
       <c r="U209" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -18058,10 +18055,10 @@
         <v>1037</v>
       </c>
       <c r="P210" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="Q210" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R210">
         <v>9.3000000000000007</v>
@@ -18073,7 +18070,7 @@
         <v>1</v>
       </c>
       <c r="U210" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -18123,10 +18120,10 @@
         <v>1037</v>
       </c>
       <c r="P211" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="Q211" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R211">
         <v>12</v>
@@ -18138,7 +18135,7 @@
         <v>1</v>
       </c>
       <c r="U211" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -18188,10 +18185,10 @@
         <v>1037</v>
       </c>
       <c r="P212" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="Q212" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="R212">
         <v>9.1</v>
@@ -18203,7 +18200,7 @@
         <v>1</v>
       </c>
       <c r="U212" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -18253,10 +18250,10 @@
         <v>1000</v>
       </c>
       <c r="P213" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="Q213" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="R213">
         <v>11.4</v>
@@ -18268,7 +18265,7 @@
         <v>1</v>
       </c>
       <c r="U213" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -18318,10 +18315,10 @@
         <v>1000</v>
       </c>
       <c r="P214" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="Q214" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="R214">
         <v>8.1</v>
@@ -18333,7 +18330,7 @@
         <v>1</v>
       </c>
       <c r="U214" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -18383,10 +18380,10 @@
         <v>1000</v>
       </c>
       <c r="P215" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="Q215" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="R215">
         <v>12.9</v>
@@ -18398,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="U215" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -18448,10 +18445,10 @@
         <v>1027</v>
       </c>
       <c r="P216" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="Q216" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="R216">
         <v>10.4</v>
@@ -18463,7 +18460,7 @@
         <v>1</v>
       </c>
       <c r="U216" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -18513,10 +18510,10 @@
         <v>1018</v>
       </c>
       <c r="P217" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="Q217" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R217">
         <v>9.1999999999999993</v>
@@ -18528,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="U217" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -18578,10 +18575,10 @@
         <v>1018</v>
       </c>
       <c r="P218" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="Q218" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R218">
         <v>9.5</v>
@@ -18593,7 +18590,7 @@
         <v>1</v>
       </c>
       <c r="U218" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -18643,10 +18640,10 @@
         <v>1038</v>
       </c>
       <c r="P219" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="Q219" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R219">
         <v>10</v>
@@ -18658,7 +18655,7 @@
         <v>1</v>
       </c>
       <c r="U219" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -18708,10 +18705,10 @@
         <v>1018</v>
       </c>
       <c r="P220" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="Q220" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R220">
         <v>9.1999999999999993</v>
@@ -18723,7 +18720,7 @@
         <v>1</v>
       </c>
       <c r="U220" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -18773,10 +18770,10 @@
         <v>1018</v>
       </c>
       <c r="P221" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="Q221" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R221">
         <v>10.3</v>
@@ -18788,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="U221" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -18838,10 +18835,10 @@
         <v>1018</v>
       </c>
       <c r="P222" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="Q222" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R222">
         <v>13</v>
@@ -18853,7 +18850,7 @@
         <v>1</v>
       </c>
       <c r="U222" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -18903,10 +18900,10 @@
         <v>1018</v>
       </c>
       <c r="P223" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="Q223" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R223">
         <v>11.6</v>
@@ -18918,7 +18915,7 @@
         <v>1</v>
       </c>
       <c r="U223" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -18968,10 +18965,10 @@
         <v>1018</v>
       </c>
       <c r="P224" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="Q224" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="R224">
         <v>9.6999999999999993</v>
@@ -18983,7 +18980,7 @@
         <v>1</v>
       </c>
       <c r="U224" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -19033,10 +19030,10 @@
         <v>1028</v>
       </c>
       <c r="P225" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="Q225" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="R225">
         <v>8.4</v>
@@ -19048,7 +19045,7 @@
         <v>1</v>
       </c>
       <c r="U225" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -19098,10 +19095,10 @@
         <v>1039</v>
       </c>
       <c r="P226" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="Q226" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R226">
         <v>12.4</v>
@@ -19113,7 +19110,7 @@
         <v>1</v>
       </c>
       <c r="U226" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -19163,10 +19160,10 @@
         <v>1040</v>
       </c>
       <c r="P227" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="Q227" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="R227">
         <v>10.7</v>
@@ -19178,7 +19175,7 @@
         <v>1</v>
       </c>
       <c r="U227" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -19228,10 +19225,10 @@
         <v>1041</v>
       </c>
       <c r="P228" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="Q228" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="R228">
         <v>10</v>
@@ -19243,7 +19240,7 @@
         <v>1</v>
       </c>
       <c r="U228" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -19293,10 +19290,10 @@
         <v>1041</v>
       </c>
       <c r="P229" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="Q229" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="R229">
         <v>10.5</v>
@@ -19308,7 +19305,7 @@
         <v>1</v>
       </c>
       <c r="U229" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -19358,10 +19355,10 @@
         <v>1042</v>
       </c>
       <c r="P230" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="Q230" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="R230">
         <v>10.5</v>
@@ -19373,7 +19370,7 @@
         <v>1</v>
       </c>
       <c r="U230" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -19423,10 +19420,10 @@
         <v>1042</v>
       </c>
       <c r="P231" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="Q231" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="R231">
         <v>7.8</v>
@@ -19438,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="U231" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -19488,10 +19485,10 @@
         <v>1002</v>
       </c>
       <c r="P232" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="Q232" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="R232">
         <v>11</v>
@@ -19503,7 +19500,7 @@
         <v>1</v>
       </c>
       <c r="U232" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -19553,10 +19550,10 @@
         <v>1002</v>
       </c>
       <c r="P233" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="Q233" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="R233">
         <v>9.6999999999999993</v>
@@ -19568,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="U233" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -19618,10 +19615,10 @@
         <v>1002</v>
       </c>
       <c r="P234" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="Q234" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="R234">
         <v>9.5</v>
@@ -19633,7 +19630,7 @@
         <v>1</v>
       </c>
       <c r="U234" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -19683,10 +19680,10 @@
         <v>1024</v>
       </c>
       <c r="P235" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="Q235" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="R235">
         <v>10.1</v>
@@ -19698,7 +19695,7 @@
         <v>1</v>
       </c>
       <c r="U235" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -19748,10 +19745,10 @@
         <v>1003</v>
       </c>
       <c r="P236" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="Q236" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R236">
         <v>12.3</v>
@@ -19763,7 +19760,7 @@
         <v>1</v>
       </c>
       <c r="U236" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -19813,10 +19810,10 @@
         <v>1003</v>
       </c>
       <c r="P237" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="Q237" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="R237">
         <v>10</v>
@@ -19828,7 +19825,7 @@
         <v>1</v>
       </c>
       <c r="U237" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -19878,10 +19875,10 @@
         <v>1029</v>
       </c>
       <c r="P238" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="Q238" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="R238">
         <v>12.7</v>
@@ -19893,7 +19890,7 @@
         <v>1</v>
       </c>
       <c r="U238" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -19943,10 +19940,10 @@
         <v>1043</v>
       </c>
       <c r="P239" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="Q239" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="R239">
         <v>10.7</v>
@@ -19958,7 +19955,7 @@
         <v>1</v>
       </c>
       <c r="U239" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -20008,10 +20005,10 @@
         <v>1043</v>
       </c>
       <c r="P240" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="Q240" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="R240">
         <v>10</v>
@@ -20023,7 +20020,7 @@
         <v>1</v>
       </c>
       <c r="U240" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -20073,10 +20070,10 @@
         <v>1044</v>
       </c>
       <c r="P241" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="Q241" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="R241">
         <v>9.5</v>
@@ -20088,7 +20085,7 @@
         <v>1</v>
       </c>
       <c r="U241" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -20138,10 +20135,10 @@
         <v>1043</v>
       </c>
       <c r="P242" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="Q242" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="R242">
         <v>9.9</v>
@@ -20153,7 +20150,7 @@
         <v>1</v>
       </c>
       <c r="U242" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -20203,10 +20200,10 @@
         <v>1044</v>
       </c>
       <c r="P243" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="Q243" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="R243">
         <v>7.8</v>
@@ -20218,7 +20215,7 @@
         <v>1</v>
       </c>
       <c r="U243" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -20268,10 +20265,10 @@
         <v>1043</v>
       </c>
       <c r="P244" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="Q244" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="R244">
         <v>11.2</v>
@@ -20283,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="U244" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -20333,10 +20330,10 @@
         <v>1044</v>
       </c>
       <c r="P245" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="Q245" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="R245">
         <v>6.9</v>
@@ -20348,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="U245" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -20398,10 +20395,10 @@
         <v>1019</v>
       </c>
       <c r="P246" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="Q246" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="R246">
         <v>11.7</v>
@@ -20413,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="U246" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -20463,10 +20460,10 @@
         <v>1045</v>
       </c>
       <c r="P247" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="Q247" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="R247">
         <v>12.4</v>
@@ -20478,7 +20475,7 @@
         <v>1</v>
       </c>
       <c r="U247" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
   </sheetData>
